--- a/output/5Y_P19_KFSDIV.xlsx
+++ b/output/5Y_P19_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-29</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-26</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-25</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-24</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-19</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.4216</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2404</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.382</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>11.9583</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.2036</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9136</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.4338</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9657</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3568</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2487</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3991</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.5985</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.6955</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3398</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.8469</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.129</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.716</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.4613</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.6545</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2345</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.1636</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.8145</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2352</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.8241</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-29</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-26</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-25</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-24</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -4985,10 +4988,10 @@
         <v>118652.3912</v>
       </c>
       <c r="K13" s="1">
-        <v>102270.0286</v>
+        <v>102272.1647</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5161</v>
+        <v>13.5164</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-19</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -5038,10 +5041,10 @@
         <v>117421.4164</v>
       </c>
       <c r="K14" s="1">
-        <v>116895.6281</v>
+        <v>116897.7643</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5736</v>
+        <v>13.5739</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -5091,10 +5094,10 @@
         <v>128832.4422</v>
       </c>
       <c r="K15" s="1">
-        <v>138894.5199</v>
+        <v>138896.6561</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3528</v>
+        <v>13.353</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -5144,10 +5147,10 @@
         <v>138650.1583</v>
       </c>
       <c r="K16" s="1">
-        <v>148894.5199</v>
+        <v>148896.6561</v>
       </c>
       <c r="L16" s="1">
-        <v>13.287</v>
+        <v>13.2872</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -5197,10 +5200,10 @@
         <v>159690.902</v>
       </c>
       <c r="K17" s="1">
-        <v>158894.5199</v>
+        <v>158896.6561</v>
       </c>
       <c r="L17" s="1">
-        <v>13.229</v>
+        <v>13.2292</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -5250,10 +5253,10 @@
         <v>175267.6416</v>
       </c>
       <c r="K18" s="1">
-        <v>164267.8279</v>
+        <v>164269.964</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2189</v>
+        <v>13.2191</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -5303,10 +5306,10 @@
         <v>191967.8146</v>
       </c>
       <c r="K19" s="1">
-        <v>168687.2705</v>
+        <v>168689.4067</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2231</v>
+        <v>13.2233</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -5356,10 +5359,10 @@
         <v>217375.7916</v>
       </c>
       <c r="K20" s="1">
-        <v>171982.5992</v>
+        <v>171984.7354</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2356</v>
+        <v>13.2358</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -5409,10 +5412,10 @@
         <v>236945.0571</v>
       </c>
       <c r="K21" s="1">
-        <v>172303.3865</v>
+        <v>172305.5226</v>
       </c>
       <c r="L21" s="1">
-        <v>13.238</v>
+        <v>13.2381</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -5462,10 +5465,10 @@
         <v>227514.5246</v>
       </c>
       <c r="K22" s="1">
-        <v>172734.5631</v>
+        <v>172736.6993</v>
       </c>
       <c r="L22" s="1">
-        <v>13.2426</v>
+        <v>13.2428</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -5515,10 +5518,10 @@
         <v>247113.3035</v>
       </c>
       <c r="K23" s="1">
-        <v>202281.357</v>
+        <v>202283.4932</v>
       </c>
       <c r="L23" s="1">
-        <v>13.3346</v>
+        <v>13.3347</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -5568,10 +5571,10 @@
         <v>258149.8615</v>
       </c>
       <c r="K24" s="1">
-        <v>208458.986</v>
+        <v>208461.1222</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3575</v>
+        <v>13.3576</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -5621,10 +5624,10 @@
         <v>266886.4854</v>
       </c>
       <c r="K25" s="1">
-        <v>217433.6108</v>
+        <v>217435.747</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3911</v>
+        <v>13.3912</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -5674,10 +5677,10 @@
         <v>304776.4775</v>
       </c>
       <c r="K26" s="1">
-        <v>228706.167</v>
+        <v>228708.3032</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4264</v>
+        <v>13.4265</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -5727,10 +5730,10 @@
         <v>315309.1433</v>
       </c>
       <c r="K27" s="1">
-        <v>218035.2424</v>
+        <v>218080.0295</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3441</v>
+        <v>13.3468</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -5780,10 +5783,10 @@
         <v>313102.9057</v>
       </c>
       <c r="K28" s="1">
-        <v>227540.5496</v>
+        <v>227585.3367</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4188</v>
+        <v>13.4214</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -5833,10 +5836,10 @@
         <v>353785.713</v>
       </c>
       <c r="K29" s="1">
-        <v>249797.6971</v>
+        <v>249842.4842</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5218</v>
+        <v>13.5243</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -5886,10 +5889,10 @@
         <v>376619.8767</v>
       </c>
       <c r="K30" s="1">
-        <v>244265.1021</v>
+        <v>244331.9953</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4826</v>
+        <v>13.4863</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -5939,10 +5942,10 @@
         <v>390750.072</v>
       </c>
       <c r="K31" s="1">
-        <v>241419.576</v>
+        <v>241497.8316</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4557</v>
+        <v>13.4601</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -5992,10 +5995,10 @@
         <v>425266.4831</v>
       </c>
       <c r="K32" s="1">
-        <v>247312.9049</v>
+        <v>247391.1604</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5145</v>
+        <v>13.5188</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -6045,10 +6048,10 @@
         <v>431322.666</v>
       </c>
       <c r="K33" s="1">
-        <v>244873.9175</v>
+        <v>244961.9197</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4861</v>
+        <v>13.4909</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -6098,10 +6101,10 @@
         <v>448343.9505</v>
       </c>
       <c r="K34" s="1">
-        <v>258873.6568</v>
+        <v>258961.659</v>
       </c>
       <c r="L34" s="1">
-        <v>13.6358</v>
+        <v>13.6405</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -6151,10 +6154,10 @@
         <v>437889.1078</v>
       </c>
       <c r="K35" s="1">
-        <v>278215.5621</v>
+        <v>278303.5643</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7992</v>
+        <v>13.8035</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -6204,10 +6207,10 @@
         <v>431173.4129</v>
       </c>
       <c r="K36" s="1">
-        <v>308714.9273</v>
+        <v>308802.9295</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9438</v>
+        <v>13.9478</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -6257,10 +6260,10 @@
         <v>402075.8734</v>
       </c>
       <c r="K37" s="1">
-        <v>335415.4567</v>
+        <v>335503.4589</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9987</v>
+        <v>14.0024</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -6310,10 +6313,10 @@
         <v>445603.6345</v>
       </c>
       <c r="K38" s="1">
-        <v>384602.9519</v>
+        <v>384690.9541</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8672</v>
+        <v>13.8704</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.4216</v>
@@ -6363,10 +6366,10 @@
         <v>471293.5232</v>
       </c>
       <c r="K39" s="1">
-        <v>371608.8269</v>
+        <v>371748.758</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8673</v>
+        <v>13.8726</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2404</v>
@@ -6416,10 +6419,10 @@
         <v>450168.0994</v>
       </c>
       <c r="K40" s="1">
-        <v>365896.1277</v>
+        <v>366058.8693</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8586</v>
+        <v>13.8648</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.382</v>
@@ -6469,10 +6472,10 @@
         <v>444222.9356</v>
       </c>
       <c r="K41" s="1">
-        <v>407186.5027</v>
+        <v>407349.2442</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7962</v>
+        <v>13.8017</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>11.9583</v>
@@ -6522,10 +6525,10 @@
         <v>440395.3586</v>
       </c>
       <c r="K42" s="1">
-        <v>442613.0964</v>
+        <v>442775.838</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6736</v>
+        <v>13.6787</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.2036</v>
@@ -6575,10 +6578,10 @@
         <v>458710.267</v>
       </c>
       <c r="K43" s="1">
-        <v>466394.1108</v>
+        <v>466556.8524</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5759</v>
+        <v>13.5807</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9136</v>
@@ -6628,10 +6631,10 @@
         <v>505507.5803</v>
       </c>
       <c r="K44" s="1">
-        <v>467990.5203</v>
+        <v>468153.2619</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5708</v>
+        <v>13.5756</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.4338</v>
@@ -6681,10 +6684,10 @@
         <v>532827.2935</v>
       </c>
       <c r="K45" s="1">
-        <v>453496.5215</v>
+        <v>453717.1741</v>
       </c>
       <c r="L45" s="1">
-        <v>13.592</v>
+        <v>13.5986</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9657</v>
@@ -6734,10 +6737,10 @@
         <v>527497.5753</v>
       </c>
       <c r="K46" s="1">
-        <v>446147.4353</v>
+        <v>446397.4609</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5942</v>
+        <v>13.6018</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3568</v>
@@ -6787,10 +6790,10 @@
         <v>559830.3288</v>
       </c>
       <c r="K47" s="1">
-        <v>471578.7481</v>
+        <v>471828.7737</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5603</v>
+        <v>13.5675</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2487</v>
@@ -6840,10 +6843,10 @@
         <v>566106.8758</v>
       </c>
       <c r="K48" s="1">
-        <v>467991.1678</v>
+        <v>468255.5345</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5617</v>
+        <v>13.5693</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3991</v>
@@ -6893,10 +6896,10 @@
         <v>581387.363</v>
       </c>
       <c r="K49" s="1">
-        <v>481769.63</v>
+        <v>482033.9967</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5533</v>
+        <v>13.5607</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.5985</v>
@@ -6946,10 +6949,10 @@
         <v>611308.4507</v>
       </c>
       <c r="K50" s="1">
-        <v>486452.8303</v>
+        <v>486717.197</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5521</v>
+        <v>13.5594</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.6955</v>
@@ -6999,10 +7002,10 @@
         <v>624792.0216</v>
       </c>
       <c r="K51" s="1">
-        <v>489321.1578</v>
+        <v>489585.5245</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5525</v>
+        <v>13.5598</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3398</v>
@@ -7052,10 +7055,10 @@
         <v>621779.4981</v>
       </c>
       <c r="K52" s="1">
-        <v>495852.2158</v>
+        <v>496116.5825</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5547</v>
+        <v>13.5619</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.8469</v>
@@ -7105,10 +7108,10 @@
         <v>622720.5399</v>
       </c>
       <c r="K53" s="1">
-        <v>518930.8593</v>
+        <v>519195.226</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5462</v>
+        <v>13.5531</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.129</v>
@@ -7158,10 +7161,10 @@
         <v>644021.9337000001</v>
       </c>
       <c r="K54" s="1">
-        <v>547890.264</v>
+        <v>548154.6307</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5089</v>
+        <v>13.5154</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.716</v>
@@ -7211,10 +7214,10 @@
         <v>637352.6213</v>
       </c>
       <c r="K55" s="1">
-        <v>546467.5474</v>
+        <v>546737.6026</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5098</v>
+        <v>13.5165</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.4613</v>
@@ -7264,10 +7267,10 @@
         <v>647350.5582</v>
       </c>
       <c r="K56" s="1">
-        <v>573243.8262</v>
+        <v>573513.8815</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4719</v>
+        <v>13.4782</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.6545</v>
@@ -7317,10 +7320,10 @@
         <v>665793.6169</v>
       </c>
       <c r="K57" s="1">
-        <v>594143.8606</v>
+        <v>594413.9158</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4346</v>
+        <v>13.4407</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2345</v>
@@ -7370,10 +7373,10 @@
         <v>657199.6678000001</v>
       </c>
       <c r="K58" s="1">
-        <v>595623.1923</v>
+        <v>595893.2476</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4326</v>
+        <v>13.4387</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.1636</v>
@@ -7423,10 +7426,10 @@
         <v>675756.7044</v>
       </c>
       <c r="K59" s="1">
-        <v>624325.9532</v>
+        <v>624596.0084</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3737</v>
+        <v>13.3795</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.8145</v>
@@ -7476,10 +7479,10 @@
         <v>669057.2462000001</v>
       </c>
       <c r="K60" s="1">
-        <v>637679.803</v>
+        <v>637949.8583</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3465</v>
+        <v>13.3522</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2352</v>
@@ -7529,10 +7532,10 @@
         <v>650018.0413</v>
       </c>
       <c r="K61" s="1">
-        <v>664432.7955</v>
+        <v>664702.8508</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2784</v>
+        <v>13.2838</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.8241</v>
@@ -7582,10 +7585,10 @@
         <v>651416.7518</v>
       </c>
       <c r="K62" s="1">
-        <v>703521.355</v>
+        <v>703791.4103</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1473</v>
+        <v>13.1523</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-29</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-26</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-25</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-24</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -8297,10 +8300,10 @@
         <v>118732.99</v>
       </c>
       <c r="K13" s="1">
-        <v>104912.0113</v>
+        <v>104913.0598</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5221</v>
+        <v>13.5222</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-19</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -8350,10 +8353,10 @@
         <v>117178.0632</v>
       </c>
       <c r="K14" s="1">
-        <v>120220.2056</v>
+        <v>120221.2541</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5799</v>
+        <v>13.58</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -8403,10 +8406,10 @@
         <v>128599.1237</v>
       </c>
       <c r="K15" s="1">
-        <v>139027.7582</v>
+        <v>139028.8066</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3899</v>
+        <v>13.39</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -8456,10 +8459,10 @@
         <v>138417.079</v>
       </c>
       <c r="K16" s="1">
-        <v>149027.7582</v>
+        <v>149028.8066</v>
       </c>
       <c r="L16" s="1">
-        <v>13.3213</v>
+        <v>13.3214</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -8509,10 +8512,10 @@
         <v>159439.8758</v>
       </c>
       <c r="K17" s="1">
-        <v>159027.7582</v>
+        <v>159028.8066</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2609</v>
+        <v>13.261</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -8562,7 +8565,7 @@
         <v>175205.8904</v>
       </c>
       <c r="K18" s="1">
-        <v>170811.5554</v>
+        <v>170812.6039</v>
       </c>
       <c r="L18" s="1">
         <v>13.2374</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -8615,10 +8618,10 @@
         <v>192179.1419</v>
       </c>
       <c r="K19" s="1">
-        <v>175849.2692</v>
+        <v>175850.3177</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2414</v>
+        <v>13.2415</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -8668,10 +8671,10 @@
         <v>218242.7429</v>
       </c>
       <c r="K20" s="1">
-        <v>179756.3578</v>
+        <v>179757.4063</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2552</v>
+        <v>13.2553</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -8721,10 +8724,10 @@
         <v>238253.0624</v>
       </c>
       <c r="K21" s="1">
-        <v>180595.9043</v>
+        <v>180596.9528</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2611</v>
+        <v>13.2612</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -8774,7 +8777,7 @@
         <v>227869.168</v>
       </c>
       <c r="K22" s="1">
-        <v>181580.1515</v>
+        <v>181581.2</v>
       </c>
       <c r="L22" s="1">
         <v>13.2711</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -8827,10 +8830,10 @@
         <v>247945.8677</v>
       </c>
       <c r="K23" s="1">
-        <v>213135.0723</v>
+        <v>213136.1208</v>
       </c>
       <c r="L23" s="1">
-        <v>13.3604</v>
+        <v>13.3605</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -8880,10 +8883,10 @@
         <v>259036.412</v>
       </c>
       <c r="K24" s="1">
-        <v>220221.9493</v>
+        <v>220222.9978</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3845</v>
+        <v>13.3846</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -8933,10 +8936,10 @@
         <v>267698.679</v>
       </c>
       <c r="K25" s="1">
-        <v>230303.0989</v>
+        <v>230304.1474</v>
       </c>
       <c r="L25" s="1">
-        <v>13.4191</v>
+        <v>13.4192</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -8986,7 +8989,7 @@
         <v>307230.5929</v>
       </c>
       <c r="K26" s="1">
-        <v>242866.2677</v>
+        <v>242867.3162</v>
       </c>
       <c r="L26" s="1">
         <v>13.4549</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -9039,10 +9042,10 @@
         <v>317796.4782</v>
       </c>
       <c r="K27" s="1">
-        <v>232236.3227</v>
+        <v>232279.8583</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3789</v>
+        <v>13.3814</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -9092,10 +9095,10 @@
         <v>314793.2161</v>
       </c>
       <c r="K28" s="1">
-        <v>243041.5594</v>
+        <v>243085.095</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4572</v>
+        <v>13.4596</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -9145,10 +9148,10 @@
         <v>357511.8757</v>
       </c>
       <c r="K29" s="1">
-        <v>267483.8601</v>
+        <v>267527.3957</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5599</v>
+        <v>13.5622</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -9198,10 +9201,10 @@
         <v>381251.0872</v>
       </c>
       <c r="K30" s="1">
-        <v>262342.8691</v>
+        <v>262406.9462</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5265</v>
+        <v>13.5298</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -9251,10 +9254,10 @@
         <v>395683.84</v>
       </c>
       <c r="K31" s="1">
-        <v>260093.4015</v>
+        <v>260166.4608</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5071</v>
+        <v>13.5109</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -9304,10 +9307,10 @@
         <v>432027.0247</v>
       </c>
       <c r="K32" s="1">
-        <v>267245.4169</v>
+        <v>267318.4762</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5722</v>
+        <v>13.5759</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -9357,10 +9360,10 @@
         <v>437772.6108</v>
       </c>
       <c r="K33" s="1">
-        <v>265478.4869</v>
+        <v>265558.6072</v>
       </c>
       <c r="L33" s="1">
-        <v>13.5534</v>
+        <v>13.5575</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -9410,10 +9413,10 @@
         <v>455317.7034</v>
       </c>
       <c r="K34" s="1">
-        <v>281468.8453</v>
+        <v>281548.9656</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7085</v>
+        <v>13.7124</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -9463,10 +9466,10 @@
         <v>443135.2027</v>
       </c>
       <c r="K35" s="1">
-        <v>303306.403</v>
+        <v>303386.5232</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8741</v>
+        <v>13.8778</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -9516,10 +9519,10 @@
         <v>434960.5202</v>
       </c>
       <c r="K36" s="1">
-        <v>337326.5984</v>
+        <v>337406.7187</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0157</v>
+        <v>14.019</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -9569,10 +9572,10 @@
         <v>402345.7425</v>
       </c>
       <c r="K37" s="1">
-        <v>367333.288</v>
+        <v>367413.4083</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0667</v>
+        <v>14.0697</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -9622,10 +9625,10 @@
         <v>448946.802</v>
       </c>
       <c r="K38" s="1">
-        <v>421953.8002</v>
+        <v>422033.9204</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9236</v>
+        <v>13.9262</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.4216</v>
@@ -9675,10 +9678,10 @@
         <v>476134.7721</v>
       </c>
       <c r="K39" s="1">
-        <v>408799.7977</v>
+        <v>408932.4858</v>
       </c>
       <c r="L39" s="1">
-        <v>13.9256</v>
+        <v>13.9301</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2404</v>
@@ -9728,10 +9731,10 @@
         <v>451949.6786</v>
       </c>
       <c r="K40" s="1">
-        <v>403617.7754</v>
+        <v>403771.155</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9191</v>
+        <v>13.9244</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.382</v>
@@ -9781,10 +9784,10 @@
         <v>444361.097</v>
       </c>
       <c r="K41" s="1">
-        <v>450075.2345</v>
+        <v>450228.6141</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8488</v>
+        <v>13.8535</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>11.9583</v>
@@ -9834,10 +9837,10 @@
         <v>439091.6934</v>
       </c>
       <c r="K42" s="1">
-        <v>490225.0223</v>
+        <v>490378.4019</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7182</v>
+        <v>13.7225</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.2036</v>
@@ -9887,10 +9890,10 @@
         <v>458211.2745</v>
       </c>
       <c r="K43" s="1">
-        <v>512837.1352</v>
+        <v>512990.5148</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6311</v>
+        <v>13.6352</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9136</v>
@@ -9940,10 +9943,10 @@
         <v>508840.0459</v>
       </c>
       <c r="K44" s="1">
-        <v>520722.7928</v>
+        <v>520876.1724</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6075</v>
+        <v>13.6115</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.4338</v>
@@ -9993,10 +9996,10 @@
         <v>538109.0616</v>
       </c>
       <c r="K45" s="1">
-        <v>505877.5794</v>
+        <v>506090.2733</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6282</v>
+        <v>13.6339</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9657</v>
@@ -10046,10 +10049,10 @@
         <v>531009.8861</v>
       </c>
       <c r="K46" s="1">
-        <v>498972.9458</v>
+        <v>499213.2362</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6305</v>
+        <v>13.6371</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3568</v>
@@ -10099,10 +10102,10 @@
         <v>565954.4222</v>
       </c>
       <c r="K47" s="1">
-        <v>528644.5938</v>
+        <v>528884.8843</v>
       </c>
       <c r="L47" s="1">
-        <v>13.593</v>
+        <v>13.5992</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2487</v>
@@ -10152,10 +10155,10 @@
         <v>571779.6394</v>
       </c>
       <c r="K48" s="1">
-        <v>525970.9607000001</v>
+        <v>526221.9388</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5941</v>
+        <v>13.6006</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3991</v>
@@ -10205,10 +10208,10 @@
         <v>587710.2251</v>
       </c>
       <c r="K49" s="1">
-        <v>542791.6879</v>
+        <v>543042.666</v>
       </c>
       <c r="L49" s="1">
-        <v>13.584</v>
+        <v>13.5902</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.5985</v>
@@ -10258,10 +10261,10 @@
         <v>620119.1561</v>
       </c>
       <c r="K50" s="1">
-        <v>549462.2610000001</v>
+        <v>549713.2392</v>
       </c>
       <c r="L50" s="1">
-        <v>13.582</v>
+        <v>13.5882</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.6955</v>
@@ -10311,10 +10314,10 @@
         <v>634049.7552</v>
       </c>
       <c r="K51" s="1">
-        <v>554135.2356</v>
+        <v>554386.2138</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5824</v>
+        <v>13.5885</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3398</v>
@@ -10364,10 +10367,10 @@
         <v>629302.0128</v>
       </c>
       <c r="K52" s="1">
-        <v>562989.7549000001</v>
+        <v>563240.733</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5846</v>
+        <v>13.5906</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.8469</v>
@@ -10417,10 +10420,10 @@
         <v>628977.518</v>
       </c>
       <c r="K53" s="1">
-        <v>590644.8805</v>
+        <v>590895.8586</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5742</v>
+        <v>13.58</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.129</v>
@@ -10470,10 +10473,10 @@
         <v>651841.8154</v>
       </c>
       <c r="K54" s="1">
-        <v>625082.5196</v>
+        <v>625333.4976999999</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5336</v>
+        <v>13.539</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.716</v>
@@ -10523,10 +10526,10 @@
         <v>642809.1967</v>
       </c>
       <c r="K55" s="1">
-        <v>625041.4508</v>
+        <v>625292.5931000001</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5336</v>
+        <v>13.539</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.4613</v>
@@ -10576,10 +10579,10 @@
         <v>652768.1837000001</v>
       </c>
       <c r="K56" s="1">
-        <v>657228.3564</v>
+        <v>657479.4987</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4925</v>
+        <v>13.4977</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.6545</v>
@@ -10629,10 +10632,10 @@
         <v>672452.2875</v>
       </c>
       <c r="K57" s="1">
-        <v>682803.6375</v>
+        <v>683054.7799</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4519</v>
+        <v>13.4569</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2345</v>
@@ -10682,10 +10685,10 @@
         <v>661048.7764</v>
       </c>
       <c r="K58" s="1">
-        <v>686187.1428</v>
+        <v>686438.2851</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4479</v>
+        <v>13.4528</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.1636</v>
@@ -10735,10 +10738,10 @@
         <v>680878.8854</v>
       </c>
       <c r="K59" s="1">
-        <v>720938.0971</v>
+        <v>721189.2394</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3853</v>
+        <v>13.39</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.8145</v>
@@ -10788,10 +10791,10 @@
         <v>671554.6573</v>
       </c>
       <c r="K60" s="1">
-        <v>738102.7971</v>
+        <v>738353.9394</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3548</v>
+        <v>13.3593</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2352</v>
@@ -10841,10 +10844,10 @@
         <v>648019.1494</v>
       </c>
       <c r="K61" s="1">
-        <v>767988.8078</v>
+        <v>768239.9502</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2885</v>
+        <v>13.2929</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.8241</v>
@@ -10894,10 +10897,10 @@
         <v>649506.3124000001</v>
       </c>
       <c r="K62" s="1">
-        <v>777988.8078</v>
+        <v>778239.9502</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2578</v>
+        <v>13.2621</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-29</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-26</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-25</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-24</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-19</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -12351,10 +12354,10 @@
         <v>320134.1095</v>
       </c>
       <c r="K27" s="1">
-        <v>247897.1894</v>
+        <v>247939.272</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4295</v>
+        <v>13.4318</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -12404,10 +12407,10 @@
         <v>316266.7895</v>
       </c>
       <c r="K28" s="1">
-        <v>260168.766</v>
+        <v>260210.8486</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5109</v>
+        <v>13.513</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -12457,10 +12460,10 @@
         <v>361195.5371</v>
       </c>
       <c r="K29" s="1">
-        <v>287046.9621</v>
+        <v>287089.0447</v>
       </c>
       <c r="L29" s="1">
-        <v>13.6119</v>
+        <v>13.6139</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -12510,10 +12513,10 @@
         <v>385922.3259</v>
       </c>
       <c r="K30" s="1">
-        <v>282405.0577</v>
+        <v>282465.6875</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5845</v>
+        <v>13.5874</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -12563,10 +12566,10 @@
         <v>400686.3479</v>
       </c>
       <c r="K31" s="1">
-        <v>280885.1093</v>
+        <v>280951.8084</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5725</v>
+        <v>13.5757</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -12616,10 +12619,10 @@
         <v>439032.8393</v>
       </c>
       <c r="K32" s="1">
-        <v>289500.5159</v>
+        <v>289567.215</v>
       </c>
       <c r="L32" s="1">
-        <v>13.6437</v>
+        <v>13.6469</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -12669,10 +12672,10 @@
         <v>444436.0355</v>
       </c>
       <c r="K33" s="1">
-        <v>288563.6013</v>
+        <v>288634.0445</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6347</v>
+        <v>13.638</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -12722,10 +12725,10 @@
         <v>462555.3245</v>
       </c>
       <c r="K34" s="1">
-        <v>306846.7114</v>
+        <v>306917.1546</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7944</v>
+        <v>13.7976</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -12775,10 +12778,10 @@
         <v>448454.9315</v>
       </c>
       <c r="K35" s="1">
-        <v>331550.0902</v>
+        <v>331620.5334</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9615</v>
+        <v>13.9644</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -12828,10 +12831,10 @@
         <v>438655.012</v>
       </c>
       <c r="K36" s="1">
-        <v>369590.5999</v>
+        <v>369661.0431</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0986</v>
+        <v>14.1013</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -12881,10 +12884,10 @@
         <v>402109.3609</v>
       </c>
       <c r="K37" s="1">
-        <v>403399.3975</v>
+        <v>403469.8407</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1444</v>
+        <v>14.1469</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -12934,10 +12937,10 @@
         <v>451028.1348</v>
       </c>
       <c r="K38" s="1">
-        <v>445316.5658</v>
+        <v>445387.009</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0317</v>
+        <v>14.0339</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.4216</v>
@@ -12987,10 +12990,10 @@
         <v>479874.0346</v>
       </c>
       <c r="K39" s="1">
-        <v>452226.5079</v>
+        <v>452296.9511</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0291</v>
+        <v>14.0313</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2404</v>
@@ -13040,10 +13043,10 @@
         <v>452234.6136</v>
       </c>
       <c r="K40" s="1">
-        <v>447786.0278</v>
+        <v>447874.2015</v>
       </c>
       <c r="L40" s="1">
-        <v>14.0251</v>
+        <v>14.0278</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.382</v>
@@ -13093,10 +13096,10 @@
         <v>443609.6404</v>
       </c>
       <c r="K41" s="1">
-        <v>488132.8263</v>
+        <v>488221</v>
       </c>
       <c r="L41" s="1">
-        <v>13.9591</v>
+        <v>13.9616</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>11.9583</v>
@@ -13146,10 +13149,10 @@
         <v>438006.4567</v>
       </c>
       <c r="K42" s="1">
-        <v>509626.7541</v>
+        <v>509714.9279</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8858</v>
+        <v>13.8882</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.2036</v>
@@ -13199,10 +13202,10 @@
         <v>457155.2291</v>
       </c>
       <c r="K43" s="1">
-        <v>519626.7541</v>
+        <v>519714.9279</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8435</v>
+        <v>13.8459</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9136</v>
@@ -13252,10 +13255,10 @@
         <v>507805.4111</v>
       </c>
       <c r="K44" s="1">
-        <v>529626.7541</v>
+        <v>529714.9279</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8091</v>
+        <v>13.8114</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.4338</v>
@@ -13305,10 +13308,10 @@
         <v>538564.0559</v>
       </c>
       <c r="K45" s="1">
-        <v>553139.6189</v>
+        <v>553227.7927</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7697</v>
+        <v>13.7719</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9657</v>
@@ -13358,10 +13361,10 @@
         <v>529413.3611</v>
       </c>
       <c r="K46" s="1">
-        <v>563139.6189</v>
+        <v>563227.7927</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7641</v>
+        <v>13.7663</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3568</v>
@@ -13411,10 +13414,10 @@
         <v>566689.0627</v>
       </c>
       <c r="K47" s="1">
-        <v>573139.6189</v>
+        <v>573227.7927</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7499</v>
+        <v>13.752</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2487</v>
@@ -13464,10 +13467,10 @@
         <v>571937.6229</v>
       </c>
       <c r="K48" s="1">
-        <v>594186.2817000001</v>
+        <v>594274.4555</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7366</v>
+        <v>13.7386</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3991</v>
@@ -13517,10 +13520,10 @@
         <v>588503.4713</v>
       </c>
       <c r="K49" s="1">
-        <v>604186.2817000001</v>
+        <v>604274.4555</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7287</v>
+        <v>13.7307</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.5985</v>
@@ -13570,10 +13573,10 @@
         <v>623212.8807</v>
       </c>
       <c r="K50" s="1">
-        <v>614186.2817000001</v>
+        <v>614274.4555</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7236</v>
+        <v>13.7256</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.6955</v>
@@ -13623,10 +13626,10 @@
         <v>637610.6078999999</v>
       </c>
       <c r="K51" s="1">
-        <v>635249.1236</v>
+        <v>635337.2974</v>
       </c>
       <c r="L51" s="1">
-        <v>13.7203</v>
+        <v>13.7223</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3398</v>
@@ -13676,10 +13679,10 @@
         <v>630820.3424</v>
       </c>
       <c r="K52" s="1">
-        <v>647098.1041999999</v>
+        <v>647186.2779</v>
       </c>
       <c r="L52" s="1">
-        <v>13.7204</v>
+        <v>13.7223</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.8469</v>
@@ -13729,10 +13732,10 @@
         <v>629827.2679</v>
       </c>
       <c r="K53" s="1">
-        <v>660029.5734</v>
+        <v>660117.7472</v>
       </c>
       <c r="L53" s="1">
-        <v>13.7133</v>
+        <v>13.7151</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.129</v>
@@ -13782,10 +13785,10 @@
         <v>653782.4325999999</v>
       </c>
       <c r="K54" s="1">
-        <v>682763.647</v>
+        <v>682851.8208</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6835</v>
+        <v>13.6853</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.716</v>
@@ -13835,10 +13838,10 @@
         <v>642866.7312</v>
       </c>
       <c r="K55" s="1">
-        <v>692763.647</v>
+        <v>692851.8208</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6756</v>
+        <v>13.6773</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.4613</v>
@@ -13888,10 +13891,10 @@
         <v>653427.6568999999</v>
       </c>
       <c r="K56" s="1">
-        <v>702763.647</v>
+        <v>702851.8208</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6613</v>
+        <v>13.6631</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.6545</v>
@@ -13941,10 +13944,10 @@
         <v>673616.6046</v>
       </c>
       <c r="K57" s="1">
-        <v>726441.0159</v>
+        <v>726529.1897</v>
       </c>
       <c r="L57" s="1">
-        <v>13.6196</v>
+        <v>13.6212</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2345</v>
@@ -13994,10 +13997,10 @@
         <v>660886.7174</v>
       </c>
       <c r="K58" s="1">
-        <v>736441.0159</v>
+        <v>736529.1897</v>
       </c>
       <c r="L58" s="1">
-        <v>13.6059</v>
+        <v>13.6075</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.1636</v>
@@ -14047,10 +14050,10 @@
         <v>681576.5214</v>
       </c>
       <c r="K59" s="1">
-        <v>746441.0159</v>
+        <v>746529.1897</v>
       </c>
       <c r="L59" s="1">
-        <v>13.5859</v>
+        <v>13.5875</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.8145</v>
@@ -14100,10 +14103,10 @@
         <v>671632.6271</v>
       </c>
       <c r="K60" s="1">
-        <v>771055.2185</v>
+        <v>771143.3922999999</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5363</v>
+        <v>13.5379</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2352</v>
@@ -14153,10 +14156,10 @@
         <v>648168.8548</v>
       </c>
       <c r="K61" s="1">
-        <v>781055.2185</v>
+        <v>781143.3922999999</v>
       </c>
       <c r="L61" s="1">
-        <v>13.5115</v>
+        <v>13.513</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.8241</v>
@@ -14206,10 +14209,10 @@
         <v>649654.1446</v>
       </c>
       <c r="K62" s="1">
-        <v>791055.2185</v>
+        <v>791143.3922999999</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4774</v>
+        <v>13.4789</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-29</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-26</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-25</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-24</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-19</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -15663,10 +15666,10 @@
         <v>321171.9086</v>
       </c>
       <c r="K27" s="1">
-        <v>265984.8229</v>
+        <v>265990.1925</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5371</v>
+        <v>13.5374</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -15716,10 +15719,10 @@
         <v>316367.4229</v>
       </c>
       <c r="K28" s="1">
-        <v>279909.3622</v>
+        <v>279914.7318</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6189</v>
+        <v>13.6191</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -15769,10 +15772,10 @@
         <v>363504.0452</v>
       </c>
       <c r="K29" s="1">
-        <v>305885.9536</v>
+        <v>305891.3232</v>
       </c>
       <c r="L29" s="1">
-        <v>13.7026</v>
+        <v>13.7028</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -15822,10 +15825,10 @@
         <v>389309.0789</v>
       </c>
       <c r="K30" s="1">
-        <v>305693.6585</v>
+        <v>305699.7964</v>
       </c>
       <c r="L30" s="1">
-        <v>13.7015</v>
+        <v>13.7018</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -15875,10 +15878,10 @@
         <v>404436.0329</v>
       </c>
       <c r="K31" s="1">
-        <v>305058.3097</v>
+        <v>305066.9846</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6971</v>
+        <v>13.6975</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -15928,10 +15931,10 @@
         <v>444980.8628</v>
       </c>
       <c r="K32" s="1">
-        <v>315372.3308</v>
+        <v>315381.0057</v>
       </c>
       <c r="L32" s="1">
-        <v>13.7727</v>
+        <v>13.7731</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -15981,10 +15984,10 @@
         <v>450006.0265</v>
       </c>
       <c r="K33" s="1">
-        <v>315450.8701</v>
+        <v>315459.545</v>
       </c>
       <c r="L33" s="1">
-        <v>13.7734</v>
+        <v>13.7737</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -16034,10 +16037,10 @@
         <v>468755.117</v>
       </c>
       <c r="K34" s="1">
-        <v>336374.2354</v>
+        <v>336382.9103</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9347</v>
+        <v>13.9351</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -16087,10 +16090,10 @@
         <v>452523.7817</v>
       </c>
       <c r="K35" s="1">
-        <v>364369.3954</v>
+        <v>364378.0703</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0994</v>
+        <v>14.0997</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -16140,10 +16143,10 @@
         <v>440911.717</v>
       </c>
       <c r="K36" s="1">
-        <v>407003.932</v>
+        <v>407012.6069</v>
       </c>
       <c r="L36" s="1">
-        <v>14.2269</v>
+        <v>14.2272</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -16193,10 +16196,10 @@
         <v>400561.8047</v>
       </c>
       <c r="K37" s="1">
-        <v>440026.465</v>
+        <v>440035.1399</v>
       </c>
       <c r="L37" s="1">
-        <v>14.2589</v>
+        <v>14.2592</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -16246,10 +16249,10 @@
         <v>450570.5527</v>
       </c>
       <c r="K38" s="1">
-        <v>450026.465</v>
+        <v>450035.1399</v>
       </c>
       <c r="L38" s="1">
-        <v>14.2292</v>
+        <v>14.2295</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.4216</v>
@@ -16299,10 +16302,10 @@
         <v>480001.5872</v>
       </c>
       <c r="K39" s="1">
-        <v>473913.3235</v>
+        <v>473921.9984</v>
       </c>
       <c r="L39" s="1">
-        <v>14.2102</v>
+        <v>14.2105</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2404</v>
@@ -16352,10 +16355,10 @@
         <v>449829.3834</v>
       </c>
       <c r="K40" s="1">
-        <v>483913.3235</v>
+        <v>483921.9984</v>
       </c>
       <c r="L40" s="1">
-        <v>14.2151</v>
+        <v>14.2154</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.382</v>
@@ -16405,10 +16408,10 @@
         <v>442234.9629</v>
       </c>
       <c r="K41" s="1">
-        <v>493913.3235</v>
+        <v>493921.9984</v>
       </c>
       <c r="L41" s="1">
-        <v>14.1946</v>
+        <v>14.1948</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>11.9583</v>
@@ -16458,10 +16461,10 @@
         <v>436675.8744</v>
       </c>
       <c r="K42" s="1">
-        <v>516168.4926</v>
+        <v>516177.1675</v>
       </c>
       <c r="L42" s="1">
-        <v>14.1069</v>
+        <v>14.1072</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.2036</v>
@@ -16511,10 +16514,10 @@
         <v>455797.3538</v>
       </c>
       <c r="K43" s="1">
-        <v>526168.4926</v>
+        <v>526177.1675</v>
       </c>
       <c r="L43" s="1">
-        <v>14.0596</v>
+        <v>14.0598</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.9136</v>
@@ -16564,10 +16567,10 @@
         <v>506328.3961</v>
       </c>
       <c r="K44" s="1">
-        <v>536168.4926</v>
+        <v>536177.1675</v>
       </c>
       <c r="L44" s="1">
-        <v>14.0204</v>
+        <v>14.0206</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.4338</v>
@@ -16617,10 +16620,10 @@
         <v>537027.716</v>
       </c>
       <c r="K45" s="1">
-        <v>559641.2204</v>
+        <v>559649.8953</v>
       </c>
       <c r="L45" s="1">
-        <v>13.9714</v>
+        <v>13.9717</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9657</v>
@@ -16670,10 +16673,10 @@
         <v>527930.5476</v>
       </c>
       <c r="K46" s="1">
-        <v>569641.2204</v>
+        <v>569649.8953</v>
       </c>
       <c r="L46" s="1">
-        <v>13.9621</v>
+        <v>13.9624</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3568</v>
@@ -16723,10 +16726,10 @@
         <v>565130.5833000001</v>
       </c>
       <c r="K47" s="1">
-        <v>579641.2204</v>
+        <v>579649.8953</v>
       </c>
       <c r="L47" s="1">
-        <v>13.9442</v>
+        <v>13.9444</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.2487</v>
@@ -16776,10 +16779,10 @@
         <v>570391.8813</v>
       </c>
       <c r="K48" s="1">
-        <v>600656.9431</v>
+        <v>600665.618</v>
       </c>
       <c r="L48" s="1">
-        <v>13.9238</v>
+        <v>13.924</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3991</v>
@@ -16829,10 +16832,10 @@
         <v>586940.1822</v>
       </c>
       <c r="K49" s="1">
-        <v>610656.9431</v>
+        <v>610665.618</v>
       </c>
       <c r="L49" s="1">
-        <v>13.9126</v>
+        <v>13.9128</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.5985</v>
@@ -16882,10 +16885,10 @@
         <v>621584.2418</v>
       </c>
       <c r="K50" s="1">
-        <v>620656.9431</v>
+        <v>620665.618</v>
       </c>
       <c r="L50" s="1">
-        <v>13.9045</v>
+        <v>13.9047</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.6955</v>
@@ -16935,10 +16938,10 @@
         <v>635985.3972</v>
       </c>
       <c r="K51" s="1">
-        <v>646458.149</v>
+        <v>646466.8239</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8932</v>
+        <v>13.8934</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3398</v>
@@ -16988,10 +16991,10 @@
         <v>629168.3962</v>
       </c>
       <c r="K52" s="1">
-        <v>656458.149</v>
+        <v>656466.8239</v>
       </c>
       <c r="L52" s="1">
-        <v>13.8905</v>
+        <v>13.8907</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.8469</v>
@@ -17041,10 +17044,10 @@
         <v>628273.5872</v>
       </c>
       <c r="K53" s="1">
-        <v>666458.149</v>
+        <v>666466.8239</v>
       </c>
       <c r="L53" s="1">
-        <v>13.8824</v>
+        <v>13.8826</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.129</v>
@@ -17094,10 +17097,10 @@
         <v>652194.5336</v>
       </c>
       <c r="K54" s="1">
-        <v>689218.1723</v>
+        <v>689226.8472</v>
       </c>
       <c r="L54" s="1">
-        <v>13.8465</v>
+        <v>13.8467</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.716</v>
@@ -17147,10 +17150,10 @@
         <v>641328.7741</v>
       </c>
       <c r="K55" s="1">
-        <v>699218.1723</v>
+        <v>699226.8472</v>
       </c>
       <c r="L55" s="1">
-        <v>13.8361</v>
+        <v>13.8363</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.4613</v>
@@ -17200,10 +17203,10 @@
         <v>651887.785</v>
       </c>
       <c r="K56" s="1">
-        <v>709218.1723</v>
+        <v>709226.8472</v>
       </c>
       <c r="L56" s="1">
-        <v>13.8194</v>
+        <v>13.8195</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.6545</v>
@@ -17253,10 +17256,10 @@
         <v>672052.9931</v>
       </c>
       <c r="K57" s="1">
-        <v>732862.8203</v>
+        <v>732871.4952</v>
       </c>
       <c r="L57" s="1">
-        <v>13.7719</v>
+        <v>13.7721</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2345</v>
@@ -17306,10 +17309,10 @@
         <v>659375.0067</v>
       </c>
       <c r="K58" s="1">
-        <v>742862.8203</v>
+        <v>742871.4952</v>
       </c>
       <c r="L58" s="1">
-        <v>13.756</v>
+        <v>13.7561</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.1636</v>
@@ -17359,10 +17362,10 @@
         <v>680040.1355</v>
       </c>
       <c r="K59" s="1">
-        <v>752862.8203</v>
+        <v>752871.4952</v>
       </c>
       <c r="L59" s="1">
-        <v>13.7337</v>
+        <v>13.7339</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.8145</v>
@@ -17412,10 +17415,10 @@
         <v>670140.4655</v>
       </c>
       <c r="K60" s="1">
-        <v>777443.5943999999</v>
+        <v>777452.2693</v>
       </c>
       <c r="L60" s="1">
-        <v>13.6789</v>
+        <v>13.679</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.2352</v>
@@ -17465,10 +17468,10 @@
         <v>646749.8655</v>
       </c>
       <c r="K61" s="1">
-        <v>787443.5943999999</v>
+        <v>787452.2693</v>
       </c>
       <c r="L61" s="1">
-        <v>13.6519</v>
+        <v>13.6521</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.8241</v>
@@ -17518,10 +17521,10 @@
         <v>648252.9105999999</v>
       </c>
       <c r="K62" s="1">
-        <v>797443.5943999999</v>
+        <v>797452.2693</v>
       </c>
       <c r="L62" s="1">
-        <v>13.6156</v>
+        <v>13.6157</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.4655</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1473</v>
+        <v>13.1523</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2578</v>
+        <v>13.2621</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4774</v>
+        <v>13.4789</v>
       </c>
       <c r="G3" s="1">
-        <v>13.6156</v>
+        <v>13.6157</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>213025.9013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8215</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9256</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8346</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8212</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8129</v>
       </c>
     </row>
   </sheetData>
